--- a/medicine/Mort/Décès_en_1986/Décès_en_1986.xlsx
+++ b/medicine/Mort/Décès_en_1986/Décès_en_1986.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -509,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,7 +539,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1er janvier : Eibhlín Ní Bhriain, journaliste irlandaise (° 23 janvier 1925).
 4 janvier : Phil Lynott, musicien et chanteur de Thin Lizzy (° 20 août 1949),
@@ -565,7 +579,7 @@
 Ellison S. Onizuka, astronaute américain (° 24 juin 1946).
 Gregory B. Jarvis, astronaute américain (° 24 août 1944).
 Michael J. Smith, astronaute américain (° 30 avril 1945).
-François Bonnet, Footballeur français (° 15 novembre 1911)[1].
+François Bonnet, Footballeur français (° 15 novembre 1911).
 29 janvier : Jiří Žák, résistant austro-hongrois puis tchécoslovaque (° 11 novembre 1917).
 30 janvier :
 Federico Ezquerra, coureur cycliste espagnol (° 10 mars 1909).
@@ -579,7 +593,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,7 +611,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>7 février : Cheikh Anta Diop, historien, anthropologue sénégalais (° 29 décembre 1923).
 10 février : Brian Aherne, acteur britannique (° 2 mai 1902).
@@ -611,7 +627,7 @@
 Jean Dorville, peintre, dessinateur, lithographe, décorateur de théâtre et poète français (° 30 mars 1901).
 Tadeusz Skowroński, diplomate et essayiste polonais (° 26 juin 1896).
 22 février : Giuseppe Macedonio, céramiste, peintre et sculpteur italien (° 25 septembre 1906).
-24 février : Alain Lachèze, footballeur français (° 11 septembre 1928)[2].
+24 février : Alain Lachèze, footballeur français (° 11 septembre 1928).
 25 février : Slimane Ben Slimane, médecin et homme politique tunisien (° 6 février 1905) ou (° 13 février 1905).
 27 février : Gholam Hossein Banan, musicien et chanteur iranien (° mai 1911).
 28 février : Olof Palme, homme d'État suédois (° 30 janvier 1927).</t>
@@ -624,7 +640,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +658,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er mars : Igor Tselovalnikov, coureur cycliste soviétique (° 2 janvier 1944).
 2 mars : Ignacio Llácer, footballeur espagnol (° 7 janvier 1916).
@@ -669,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -687,7 +705,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 avril : Charles Moeller, théologien et écrivain belge (° 18 janvier 1912).
 6 avril : Raimundo Orsi, footballeur international argentin et italien (° 2 décembre 1901).
@@ -717,7 +737,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -735,7 +755,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2 mai : Henri Toivonen, pilote de rallye finlandais (° 25 août 1956).
 3 mai : Robert Alda, acteur américain d'origine italienne (° 26 février 1914).
@@ -761,7 +783,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -779,7 +801,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2 juin :
 Arthur Hoérée, compositeur et acteur belge (° 16 avril 1897).
@@ -815,7 +839,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -833,10 +857,12 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1er juillet :
-Jean Baratte, footballeur international français devenu entraîneur (° 7 juin 1923)[3].
+Jean Baratte, footballeur international français devenu entraîneur (° 7 juin 1923).
 Roy Poole, acteur américain (° 31 mars 1924).
 4 juillet :
 Pierre Giannotti, ténor français à l'Opéra et l'Opéra-Comique (° 12 novembre 1910).
@@ -868,7 +894,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -886,7 +912,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1er août :
 José María Vidal , footballeur international espagnol (° 6 mai 1935).
@@ -908,7 +936,7 @@
 Sigmund Menkès, peintre austro-hongrois puis polonais (° 6 mai 1896).
 21 août : Bata, footballeur international espagnol (° 11 mai 1908).
 31 août : Henry Moore, sculpteur britannique (° 30 juillet 1898).
-31 août : Paul Barthes, footballeur français (° 29 mars 1923)[4].</t>
+31 août : Paul Barthes, footballeur français (° 29 mars 1923).</t>
         </is>
       </c>
     </row>
@@ -918,7 +946,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -936,7 +964,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1er septembre : Murray Hamilton, acteur américain (° 24 mars 1923).
 2 septembre :
@@ -971,7 +1001,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -989,7 +1019,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>2 octobre : Camille Paul Josso, graveur, peintre et illustrateur français (° 6 juin 1902).
 4 octobre : André Minaux, peintre, sculpteur, illustrateur, graveur et lithographe français (° 5 septembre 1923).
@@ -999,7 +1031,7 @@
 Sam Ringer, peintre français d'origine polonaise, rattaché à l'École de Paris (° 5 novembre 1918).
 9 octobre : André-Charles Nauleau, peintre français (° 6 mai 1908).
 11 octobre : Georges Dumézil, philologue, académicien français (fauteuil 40) (° 4 mars 1898).
-13 octobre : Claude Mulot, cinéaste et scénariste français (° 21 août 1942)[5].
+13 octobre : Claude Mulot, cinéaste et scénariste français (° 21 août 1942).
 14 octobre : Takanori Oguiss, peintre japonais (° 30 novembre 1901).
 16 octobre :
 Marcel Bouret, peintre et illustrateur français (° 29 mai 1907).
@@ -1020,7 +1052,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1038,7 +1070,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1er novembre : Pierre Repp, humoriste et acteur (° 5 novembre 1909).
 2 novembre :
@@ -1078,7 +1112,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1096,7 +1130,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>2 décembre : Desi Arnaz, acteur, producteur et chanteur américain (° 2 mars 1917).
 3 décembre : Anthony Mascarenhas, journaliste pakistanais (° 10 juillet 1928).
@@ -1116,7 +1152,7 @@
 Heidi Abel, présentatrice de télévision suisse (° 21 février 1929).
 Gerhard Bienert, acteur allemand (° 8 janvier 1898).
 Willem Hofhuizen, peintre et sculpteur expressionniste néerlandais (° 27 juillet 1915).
-24 décembre : Alfred Gérard, footballeur français (° 5 octobre 1919)[6].
+24 décembre : Alfred Gérard, footballeur français (° 5 octobre 1919).
 25 décembre : Mikhaël Ivanhov, enseignant bulgare, fondateur de la Fraternité blanche universelle (° 31 janvier 1900).
 26 décembre : Håkon Gundersen, footballeur international norvégien (° 18 septembre 1907).
 28 décembre :
@@ -1133,7 +1169,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1986</t>
+          <t>Décès_en_1986</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1151,7 +1187,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Geneviève Dumont, plasticienne, peintre et sculptrice française (° 3 novembre 1943).
 Louis Dussour, peintre français (° 1905).
